--- a/library-Hard-Database-Phan-Sreypich.xlsx
+++ b/library-Hard-Database-Phan-Sreypich.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ly heng\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kanaka.app168\Documents\GitHub\Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="New added book" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="121">
   <si>
     <t>Book ID [int PK]</t>
   </si>
@@ -384,6 +385,9 @@
   </si>
   <si>
     <t>Jerold L. Zimmerman</t>
+  </si>
+  <si>
+    <t>Import Date [date]</t>
   </si>
 </sst>
 </file>
@@ -422,12 +426,12 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,6 +525,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -556,6 +577,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -710,1087 +748,1087 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D28" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="3"/>
-    <col min="5" max="5" width="42" style="3" customWidth="1"/>
-    <col min="6" max="6" width="31.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="2"/>
+    <col min="5" max="5" width="42" style="2" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="3">
+      <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="2">
         <v>2015</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="2">
         <v>11</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="2">
         <v>477</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="2">
         <v>2</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="3">
+      <c r="G3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="2">
         <v>2013</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="2">
         <v>2</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="2">
         <v>304</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="2">
         <v>4</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="3">
+      <c r="G4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="2">
         <v>2012</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <v>3</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <v>279</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="3">
+      <c r="G5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="2">
         <v>2013</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="2">
         <v>3</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="2">
         <v>294</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="2">
         <v>402</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="3">
+      <c r="G7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="2">
         <v>2012</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="2">
         <v>8</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="2">
         <v>990</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="G8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="2">
         <v>2012</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="2">
         <v>8</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="2">
         <v>654</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="G9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="2">
         <v>2014</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="2">
         <v>14</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="2">
         <v>1163</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="G10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="3">
+      <c r="G11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="2">
         <v>2010</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="2">
         <v>4</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="2">
         <v>650</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="G12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="2">
         <v>2</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="2">
         <v>217</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="3">
+      <c r="G13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="2">
         <v>2010</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="2">
         <v>2</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="2">
         <v>647</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="G14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="2">
         <v>2012</v>
       </c>
-      <c r="I14" s="3">
-        <v>1</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
         <v>481</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="3">
+      <c r="G15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="2">
         <v>20</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="2">
         <v>471</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="3">
+      <c r="G16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="2">
         <v>2011</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="2">
         <v>9</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="2">
         <v>773</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="G17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="2">
         <v>2015</v>
       </c>
-      <c r="I17" s="3">
-        <v>1</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2">
         <v>647</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="G18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="2">
         <v>2012</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="2">
         <v>4</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="2">
         <v>603</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="3">
+      <c r="G19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="2">
         <v>2008</v>
       </c>
-      <c r="I19" s="3">
-        <v>1</v>
-      </c>
-      <c r="J19" s="3">
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2">
         <v>231</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="G20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="2">
         <v>2008</v>
       </c>
-      <c r="I20" s="3">
-        <v>1</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="I20" s="2">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2">
         <v>288</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="G21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="2">
         <v>2006</v>
       </c>
-      <c r="I21" s="3">
-        <v>1</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="I21" s="2">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2">
         <v>150</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="G22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="2">
         <v>2006</v>
       </c>
-      <c r="I22" s="3">
-        <v>1</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="I22" s="2">
+        <v>1</v>
+      </c>
+      <c r="J22" s="2">
         <v>230</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="G23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="2">
         <v>2011</v>
       </c>
-      <c r="I23" s="3">
-        <v>1</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="I23" s="2">
+        <v>1</v>
+      </c>
+      <c r="J23" s="2">
         <v>200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="G24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="2">
         <v>2001</v>
       </c>
-      <c r="I24" s="3">
-        <v>1</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="I24" s="2">
+        <v>1</v>
+      </c>
+      <c r="J24" s="2">
         <v>255</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" s="3">
+      <c r="G25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="2">
         <v>2015</v>
       </c>
-      <c r="I25" s="3">
-        <v>1</v>
-      </c>
-      <c r="J25" s="3">
+      <c r="I25" s="2">
+        <v>1</v>
+      </c>
+      <c r="J25" s="2">
         <v>283</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="G26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="2">
         <v>2010</v>
       </c>
-      <c r="I26" s="3">
-        <v>1</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="I26" s="2">
+        <v>1</v>
+      </c>
+      <c r="J26" s="2">
         <v>478</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="G27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="2">
         <v>2013</v>
       </c>
-      <c r="I27" s="3">
-        <v>1</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="I27" s="2">
+        <v>1</v>
+      </c>
+      <c r="J27" s="2">
         <v>283</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28" s="3">
+      <c r="G28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="2">
         <v>2010</v>
       </c>
-      <c r="I28" s="3">
-        <v>1</v>
-      </c>
-      <c r="J28" s="3">
+      <c r="I28" s="2">
+        <v>1</v>
+      </c>
+      <c r="J28" s="2">
         <v>242</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29" s="3">
+      <c r="G29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="2">
         <v>2013</v>
       </c>
-      <c r="I29" s="3">
-        <v>1</v>
-      </c>
-      <c r="J29" s="3">
+      <c r="I29" s="2">
+        <v>1</v>
+      </c>
+      <c r="J29" s="2">
         <v>206</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" s="3">
+      <c r="G30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="2">
         <v>2007</v>
       </c>
-      <c r="I30" s="3">
-        <v>1</v>
-      </c>
-      <c r="J30" s="3">
+      <c r="I30" s="2">
+        <v>1</v>
+      </c>
+      <c r="J30" s="2">
         <v>408</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K30" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G31" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" s="3">
+      <c r="G31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="2">
         <v>2014</v>
       </c>
-      <c r="I31" s="3">
-        <v>1</v>
-      </c>
-      <c r="J31" s="3">
+      <c r="I31" s="2">
+        <v>1</v>
+      </c>
+      <c r="J31" s="2">
         <v>354</v>
       </c>
-      <c r="K31" s="3">
+      <c r="K31" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="G32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="2">
         <v>2013</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="2">
         <v>6</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="2">
         <v>548</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="G33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="2">
         <v>2015</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="2">
         <v>2</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33" s="2">
         <v>504</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G34" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34" s="3">
+      <c r="G34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="2">
         <v>2015</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J34" s="2">
         <v>809</v>
       </c>
-      <c r="K34" s="3">
+      <c r="K34" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="G35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="2">
         <v>2012</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="2">
         <v>4</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35" s="2">
         <v>780</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G36" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H36" s="3">
+      <c r="G36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" s="2">
         <v>2015</v>
       </c>
-      <c r="I36" s="3">
+      <c r="I36" s="2">
         <v>4</v>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="J36" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="K36" s="3">
+      <c r="K36" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G37" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37" s="3">
+      <c r="G37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="2">
         <v>2014</v>
       </c>
-      <c r="I37" s="3">
+      <c r="I37" s="2">
         <v>8</v>
       </c>
-      <c r="J37" s="3">
+      <c r="J37" s="2">
         <v>680</v>
       </c>
-      <c r="K37" s="3">
+      <c r="K37" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1800,4 +1838,109 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="2"/>
+    <col min="6" max="6" width="42" style="2" customWidth="1"/>
+    <col min="7" max="7" width="31.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F11" s="1"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="1"/>
+    </row>
+    <row r="30" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D30" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/library-Hard-Database-Phan-Sreypich.xlsx
+++ b/library-Hard-Database-Phan-Sreypich.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kanaka.app168\Documents\GitHub\Library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kanaka.app168\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="140">
   <si>
     <t>Book ID [int PK]</t>
   </si>
@@ -388,6 +388,63 @@
   </si>
   <si>
     <t>Import Date [date]</t>
+  </si>
+  <si>
+    <t>Data Science</t>
+  </si>
+  <si>
+    <t>BIM Handbook - A Guide to Building information modeling</t>
+  </si>
+  <si>
+    <t>Chuck Eastman, Paul Teicholz, Rafael Sacks, Kathleen Liston</t>
+  </si>
+  <si>
+    <t>John Wiley &amp; Sons, Inc.</t>
+  </si>
+  <si>
+    <t>CISSP - Certified Information Systems Security Professional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">James Michael Stewart, Mike Chapple, Darril Gibson </t>
+  </si>
+  <si>
+    <t>Inspirational</t>
+  </si>
+  <si>
+    <t>Work Rules!</t>
+  </si>
+  <si>
+    <t>Laszlo Bock</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Elon Musk</t>
+  </si>
+  <si>
+    <t>Ashelee Vance</t>
+  </si>
+  <si>
+    <t>HarperCollins Publisher</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Hacking - Basic Security, Penetration Testing and How to hack</t>
+  </si>
+  <si>
+    <t>Isaac Sharpe</t>
+  </si>
+  <si>
+    <t>Black Hat Python</t>
+  </si>
+  <si>
+    <t>Justin Seitz</t>
+  </si>
+  <si>
+    <t>William Pollock</t>
   </si>
 </sst>
 </file>
@@ -423,7 +480,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -432,6 +489,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -746,19 +804,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59" style="2" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="2"/>
-    <col min="5" max="5" width="42" style="2" customWidth="1"/>
+    <col min="5" max="5" width="54.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.28515625" style="2" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="2" bestFit="1" customWidth="1"/>
@@ -1832,6 +1890,180 @@
         <v>1</v>
       </c>
     </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="2">
+        <v>2011</v>
+      </c>
+      <c r="I38" s="2">
+        <v>2</v>
+      </c>
+      <c r="J38" s="2">
+        <v>626</v>
+      </c>
+      <c r="K38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" s="2">
+        <v>2015</v>
+      </c>
+      <c r="I39" s="2">
+        <v>7</v>
+      </c>
+      <c r="J39" s="2">
+        <v>1023</v>
+      </c>
+      <c r="K39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" s="2">
+        <v>2015</v>
+      </c>
+      <c r="I40" s="2">
+        <v>1</v>
+      </c>
+      <c r="J40" s="2">
+        <v>406</v>
+      </c>
+      <c r="K40" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" s="2">
+        <v>2015</v>
+      </c>
+      <c r="I41" s="2">
+        <v>1</v>
+      </c>
+      <c r="J41" s="2">
+        <v>392</v>
+      </c>
+      <c r="K41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" s="2">
+        <v>2015</v>
+      </c>
+      <c r="I42" s="2">
+        <v>1</v>
+      </c>
+      <c r="J42" s="2">
+        <v>266</v>
+      </c>
+      <c r="K42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" s="2">
+        <v>2015</v>
+      </c>
+      <c r="I43" s="2">
+        <v>1</v>
+      </c>
+      <c r="J43" s="2">
+        <v>170</v>
+      </c>
+      <c r="K43" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:D1"/>
@@ -1844,8 +2076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1853,9 +2085,9 @@
     <col min="1" max="1" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="2"/>
-    <col min="6" max="6" width="42" style="2" customWidth="1"/>
+    <col min="4" max="4" width="54.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="54.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.28515625" style="2" customWidth="1"/>
     <col min="8" max="8" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" style="2" bestFit="1" customWidth="1"/>
@@ -1917,6 +2149,216 @@
         <v>12</v>
       </c>
     </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>42549</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="2">
+        <v>2011</v>
+      </c>
+      <c r="J2" s="2">
+        <v>2</v>
+      </c>
+      <c r="K2" s="2">
+        <v>626</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>42549</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="2">
+        <v>2015</v>
+      </c>
+      <c r="J3" s="2">
+        <v>7</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1023</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>42549</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2015</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2">
+        <v>406</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>42549</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="2">
+        <v>2015</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2">
+        <v>392</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>42549</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="2">
+        <v>2015</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2">
+        <v>266</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>42549</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2015</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2">
+        <v>170</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1</v>
+      </c>
+    </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
